--- a/files for download/КТС_шаблон.xlsx
+++ b/files for download/КТС_шаблон.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" tabRatio="500"/>
+    <workbookView windowWidth="12210" windowHeight="9315" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="kts" sheetId="1" r:id="rId1"/>
@@ -1429,26 +1429,26 @@
   </sheetPr>
   <dimension ref="A1:M65536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00925925925926" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.00952380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.36111111111111" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.30555555555556" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.41666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.01851851851852" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.30555555555556" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.58333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.8703703703704" style="3" customWidth="1"/>
-    <col min="9" max="9" width="3.86111111111111" style="3" customWidth="1"/>
-    <col min="10" max="10" width="5.92592592592593" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.2685185185185" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.32407407407407" style="3" customWidth="1"/>
-    <col min="13" max="13" width="9.4537037037037" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.00925925925926" style="3"/>
+    <col min="1" max="1" width="6.36190476190476" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.24761904761905" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.3047619047619" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.41904761904762" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.01904761904762" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.3047619047619" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.58095238095238" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.8666666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.85714285714286" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.92380952380952" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.2666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.32380952380952" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.45714285714286" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.00952380952381" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:13">
@@ -1513,7 +1513,7 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:13">
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1592,7 +1592,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:13">
+    <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1607,7 +1607,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:13">
+    <row r="11" customHeight="1" spans="1:13">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1641,7 +1641,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:13">
+    <row r="13" customHeight="1" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1656,7 +1656,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:13">
+    <row r="14" customHeight="1" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1688,7 +1688,7 @@
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:13">
+    <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1703,7 +1703,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:13">
+    <row r="17" customHeight="1" spans="1:13">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1735,7 +1735,7 @@
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:13">
+    <row r="19" customHeight="1" spans="1:13">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1750,7 +1750,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:13">
+    <row r="20" customHeight="1" spans="1:13">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1782,7 +1782,7 @@
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:13">
+    <row r="22" customHeight="1" spans="1:13">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1797,7 +1797,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:13">
+    <row r="23" customHeight="1" spans="1:13">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1829,7 +1829,7 @@
       <c r="L24" s="17"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:13">
+    <row r="25" customHeight="1" spans="1:13">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1844,7 +1844,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:13">
+    <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1876,7 +1876,7 @@
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:13">
+    <row r="28" customHeight="1" spans="1:13">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1891,7 +1891,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:13">
+    <row r="29" customHeight="1" spans="1:13">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
